--- a/Data/swaption elastic 0.9 hedge.xlsx
+++ b/Data/swaption elastic 0.9 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5872.033800110366</v>
+        <v>-26098.63428430971</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2362.469994177171</v>
+        <v>-38260.82600086056</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>623.7984805875957</v>
+        <v>-13249.50673265692</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-389.0975027836594</v>
+        <v>3451.383350051449</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-1562.111567209715</v>
+        <v>2417.663915664937</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-711.9103930155592</v>
+        <v>1507.038305430299</v>
       </c>
     </row>
   </sheetData>
